--- a/Alex Bd/Project/Totales_Df.xlsx
+++ b/Alex Bd/Project/Totales_Df.xlsx
@@ -1,37 +1,208 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexandertrejo/Documents/Lotus Analytica/Desaparecidos/Alex/desaparecidos/Alex Bd/Project/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A1AD457-5A56-4C45-A9F0-AF3DBFA57570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="3540" yWindow="760" windowWidth="23160" windowHeight="17460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="53">
+  <si>
+    <t>CATEGORIA</t>
+  </si>
+  <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t>TOTALES</t>
+  </si>
+  <si>
+    <t>Total Global</t>
+  </si>
+  <si>
+    <t>283,424</t>
+  </si>
+  <si>
+    <t>Total Desaparecidos</t>
+  </si>
+  <si>
+    <t>110,770</t>
+  </si>
+  <si>
+    <t>Total Localizados</t>
+  </si>
+  <si>
+    <t>172,654</t>
+  </si>
+  <si>
+    <t>Porcentaje Desaparecidos</t>
+  </si>
+  <si>
+    <t>39.08 %</t>
+  </si>
+  <si>
+    <t>Porcentaje Localizados</t>
+  </si>
+  <si>
+    <t>60.92 %</t>
+  </si>
+  <si>
+    <t>Total Solo Desaparecidos</t>
+  </si>
+  <si>
+    <t>96,570</t>
+  </si>
+  <si>
+    <t>Total Solo No Localizados</t>
+  </si>
+  <si>
+    <t>14,200</t>
+  </si>
+  <si>
+    <t>Porcentaje Solo Desaparecidos</t>
+  </si>
+  <si>
+    <t>87.18 %</t>
+  </si>
+  <si>
+    <t>Porcentaje Solo No Localizados</t>
+  </si>
+  <si>
+    <t>12.82 %</t>
+  </si>
+  <si>
+    <t>Total Localizados CV</t>
+  </si>
+  <si>
+    <t>160,361</t>
+  </si>
+  <si>
+    <t>TotalLocalizados SV</t>
+  </si>
+  <si>
+    <t>12,293</t>
+  </si>
+  <si>
+    <t>Porcentaje Localizados CV</t>
+  </si>
+  <si>
+    <t>92.88 %</t>
+  </si>
+  <si>
+    <t>Porcentaje Localizados SV</t>
+  </si>
+  <si>
+    <t>7.12 %</t>
+  </si>
+  <si>
+    <t>284,229</t>
+  </si>
+  <si>
+    <t>110,666</t>
+  </si>
+  <si>
+    <t>173,563</t>
+  </si>
+  <si>
+    <t>38.94 %</t>
+  </si>
+  <si>
+    <t>61.06 %</t>
+  </si>
+  <si>
+    <t>96,560</t>
+  </si>
+  <si>
+    <t>14,106</t>
+  </si>
+  <si>
+    <t>87.25 %</t>
+  </si>
+  <si>
+    <t>12.75 %</t>
+  </si>
+  <si>
+    <t>161,210</t>
+  </si>
+  <si>
+    <t>12,353</t>
+  </si>
+  <si>
+    <t>284,534</t>
+  </si>
+  <si>
+    <t>110,745</t>
+  </si>
+  <si>
+    <t>173,789</t>
+  </si>
+  <si>
+    <t>38.92 %</t>
+  </si>
+  <si>
+    <t>61.08 %</t>
+  </si>
+  <si>
+    <t>96,600</t>
+  </si>
+  <si>
+    <t>14,145</t>
+  </si>
+  <si>
+    <t>87.23 %</t>
+  </si>
+  <si>
+    <t>12.77 %</t>
+  </si>
+  <si>
+    <t>161,405</t>
+  </si>
+  <si>
+    <t>12,384</t>
+  </si>
+  <si>
+    <t>92.87 %</t>
+  </si>
+  <si>
+    <t>7.13 %</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +217,47 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,185 +545,598 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" style="3" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>CATEGORIA</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>TOTALES</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Total Global</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>283,424</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Total Desaparecidos</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>110,770</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Total Localizados</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>172,654</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Porcentaje Desaparecidos</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>39.08 %</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Porcentaje Localizados</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>60.92 %</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Total Solo Desaparecidos</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>96,570</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Total Solo No Localizados</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>14,200</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Porcentaje Solo Desaparecidos</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>87.18 %</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Porcentaje Solo No Localizados</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>12.82 %</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Total Localizados CV</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>160,361</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>TotalLocalizados SV</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>12,293</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Porcentaje Localizados CV</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>92.88 %</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Porcentaje Localizados SV</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>7.12 %</t>
-        </is>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3">
+        <v>45076</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3">
+        <v>45076</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="3">
+        <v>45076</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="3">
+        <v>45076</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="3">
+        <v>45076</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="3">
+        <v>45076</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="3">
+        <v>45076</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="3">
+        <v>45076</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="3">
+        <v>45076</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="3">
+        <v>45076</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="3">
+        <v>45076</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="3">
+        <v>45076</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="3">
+        <v>45076</v>
+      </c>
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="3">
+        <v>45077</v>
+      </c>
+      <c r="C15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="3">
+        <v>45077</v>
+      </c>
+      <c r="C16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="3">
+        <v>45077</v>
+      </c>
+      <c r="C17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3">
+        <v>45077</v>
+      </c>
+      <c r="C18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="3">
+        <v>45077</v>
+      </c>
+      <c r="C19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="3">
+        <v>45077</v>
+      </c>
+      <c r="C20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="3">
+        <v>45077</v>
+      </c>
+      <c r="C21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="3">
+        <v>45077</v>
+      </c>
+      <c r="C22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="3">
+        <v>45077</v>
+      </c>
+      <c r="C23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="3">
+        <v>45077</v>
+      </c>
+      <c r="C24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="3">
+        <v>45077</v>
+      </c>
+      <c r="C25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3">
+        <v>45077</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="3">
+        <v>45077</v>
+      </c>
+      <c r="C27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="3">
+        <v>45078</v>
+      </c>
+      <c r="C28" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="3">
+        <v>45078</v>
+      </c>
+      <c r="C29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="3">
+        <v>45078</v>
+      </c>
+      <c r="C30" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="3">
+        <v>45078</v>
+      </c>
+      <c r="C31" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" s="3">
+        <v>45078</v>
+      </c>
+      <c r="C32" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" s="3">
+        <v>45078</v>
+      </c>
+      <c r="C33" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34" s="3">
+        <v>45078</v>
+      </c>
+      <c r="C34" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35" s="3">
+        <v>45078</v>
+      </c>
+      <c r="C35" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36" s="3">
+        <v>45078</v>
+      </c>
+      <c r="C36" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>21</v>
+      </c>
+      <c r="B37" s="3">
+        <v>45078</v>
+      </c>
+      <c r="C37" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>23</v>
+      </c>
+      <c r="B38" s="3">
+        <v>45078</v>
+      </c>
+      <c r="C38" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>25</v>
+      </c>
+      <c r="B39" s="3">
+        <v>45078</v>
+      </c>
+      <c r="C39" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>27</v>
+      </c>
+      <c r="B40" s="3">
+        <v>45078</v>
+      </c>
+      <c r="C40" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41" s="3">
+        <v>45079</v>
+      </c>
+      <c r="C41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" s="3">
+        <v>45079</v>
+      </c>
+      <c r="C42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" s="3">
+        <v>45079</v>
+      </c>
+      <c r="C43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44" s="3">
+        <v>45079</v>
+      </c>
+      <c r="C44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>11</v>
+      </c>
+      <c r="B45" s="3">
+        <v>45079</v>
+      </c>
+      <c r="C45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>13</v>
+      </c>
+      <c r="B46" s="3">
+        <v>45079</v>
+      </c>
+      <c r="C46" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>15</v>
+      </c>
+      <c r="B47" s="3">
+        <v>45079</v>
+      </c>
+      <c r="C47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>17</v>
+      </c>
+      <c r="B48" s="3">
+        <v>45079</v>
+      </c>
+      <c r="C48" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>19</v>
+      </c>
+      <c r="B49" s="3">
+        <v>45079</v>
+      </c>
+      <c r="C49" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>21</v>
+      </c>
+      <c r="B50" s="3">
+        <v>45079</v>
+      </c>
+      <c r="C50" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>23</v>
+      </c>
+      <c r="B51" s="3">
+        <v>45079</v>
+      </c>
+      <c r="C51" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>25</v>
+      </c>
+      <c r="B52" s="3">
+        <v>45079</v>
+      </c>
+      <c r="C52" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>27</v>
+      </c>
+      <c r="B53" s="3">
+        <v>45079</v>
+      </c>
+      <c r="C53" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/Alex Bd/Project/Totales_Df.xlsx
+++ b/Alex Bd/Project/Totales_Df.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C66"/>
+  <dimension ref="A1:C222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1243,7 +1243,7 @@
           <t>Total Global</t>
         </is>
       </c>
-      <c r="B54" s="3" t="n">
+      <c r="B54" s="2" t="n">
         <v>45080</v>
       </c>
       <c r="C54" t="inlineStr">
@@ -1258,7 +1258,7 @@
           <t>Total Desaparecidos</t>
         </is>
       </c>
-      <c r="B55" s="3" t="n">
+      <c r="B55" s="2" t="n">
         <v>45080</v>
       </c>
       <c r="C55" t="inlineStr">
@@ -1273,7 +1273,7 @@
           <t>Total Localizados</t>
         </is>
       </c>
-      <c r="B56" s="3" t="n">
+      <c r="B56" s="2" t="n">
         <v>45080</v>
       </c>
       <c r="C56" t="inlineStr">
@@ -1288,7 +1288,7 @@
           <t>Porcentaje Desaparecidos</t>
         </is>
       </c>
-      <c r="B57" s="3" t="n">
+      <c r="B57" s="2" t="n">
         <v>45080</v>
       </c>
       <c r="C57" t="inlineStr">
@@ -1303,7 +1303,7 @@
           <t>Porcentaje Localizados</t>
         </is>
       </c>
-      <c r="B58" s="3" t="n">
+      <c r="B58" s="2" t="n">
         <v>45080</v>
       </c>
       <c r="C58" t="inlineStr">
@@ -1318,7 +1318,7 @@
           <t>Total Solo Desaparecidos</t>
         </is>
       </c>
-      <c r="B59" s="3" t="n">
+      <c r="B59" s="2" t="n">
         <v>45080</v>
       </c>
       <c r="C59" t="inlineStr">
@@ -1333,7 +1333,7 @@
           <t>Total Solo No Localizados</t>
         </is>
       </c>
-      <c r="B60" s="3" t="n">
+      <c r="B60" s="2" t="n">
         <v>45080</v>
       </c>
       <c r="C60" t="inlineStr">
@@ -1348,7 +1348,7 @@
           <t>Porcentaje Solo Desaparecidos</t>
         </is>
       </c>
-      <c r="B61" s="3" t="n">
+      <c r="B61" s="2" t="n">
         <v>45080</v>
       </c>
       <c r="C61" t="inlineStr">
@@ -1363,7 +1363,7 @@
           <t>Porcentaje Solo No Localizados</t>
         </is>
       </c>
-      <c r="B62" s="3" t="n">
+      <c r="B62" s="2" t="n">
         <v>45080</v>
       </c>
       <c r="C62" t="inlineStr">
@@ -1378,7 +1378,7 @@
           <t>Total Localizados CV</t>
         </is>
       </c>
-      <c r="B63" s="3" t="n">
+      <c r="B63" s="2" t="n">
         <v>45080</v>
       </c>
       <c r="C63" t="inlineStr">
@@ -1393,7 +1393,7 @@
           <t>TotalLocalizados SV</t>
         </is>
       </c>
-      <c r="B64" s="3" t="n">
+      <c r="B64" s="2" t="n">
         <v>45080</v>
       </c>
       <c r="C64" t="inlineStr">
@@ -1408,7 +1408,7 @@
           <t>Porcentaje Localizados CV</t>
         </is>
       </c>
-      <c r="B65" s="3" t="n">
+      <c r="B65" s="2" t="n">
         <v>45080</v>
       </c>
       <c r="C65" t="inlineStr">
@@ -1423,12 +1423,2352 @@
           <t>Porcentaje Localizados SV</t>
         </is>
       </c>
-      <c r="B66" s="3" t="n">
+      <c r="B66" s="2" t="n">
         <v>45080</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
           <t>7.13 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Total Global</t>
+        </is>
+      </c>
+      <c r="B67" s="2" t="n">
+        <v>45081</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>284,574</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Total Desaparecidos</t>
+        </is>
+      </c>
+      <c r="B68" s="2" t="n">
+        <v>45081</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>110,754</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Total Localizados</t>
+        </is>
+      </c>
+      <c r="B69" s="2" t="n">
+        <v>45081</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>173,820</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Porcentaje Desaparecidos</t>
+        </is>
+      </c>
+      <c r="B70" s="2" t="n">
+        <v>45081</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>38.92 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Porcentaje Localizados</t>
+        </is>
+      </c>
+      <c r="B71" s="2" t="n">
+        <v>45081</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>61.08 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Total Solo Desaparecidos</t>
+        </is>
+      </c>
+      <c r="B72" s="2" t="n">
+        <v>45081</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>96,597</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Total Solo No Localizados</t>
+        </is>
+      </c>
+      <c r="B73" s="2" t="n">
+        <v>45081</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>14,157</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Porcentaje Solo Desaparecidos</t>
+        </is>
+      </c>
+      <c r="B74" s="2" t="n">
+        <v>45081</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>87.22 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Porcentaje Solo No Localizados</t>
+        </is>
+      </c>
+      <c r="B75" s="2" t="n">
+        <v>45081</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>12.78 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Total Localizados CV</t>
+        </is>
+      </c>
+      <c r="B76" s="2" t="n">
+        <v>45081</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>161,433</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>TotalLocalizados SV</t>
+        </is>
+      </c>
+      <c r="B77" s="2" t="n">
+        <v>45081</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>12,387</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Porcentaje Localizados CV</t>
+        </is>
+      </c>
+      <c r="B78" s="2" t="n">
+        <v>45081</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>92.87 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Porcentaje Localizados SV</t>
+        </is>
+      </c>
+      <c r="B79" s="2" t="n">
+        <v>45081</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>7.13 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Total Global</t>
+        </is>
+      </c>
+      <c r="B80" s="2" t="n">
+        <v>45082</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>284,586</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Total Desaparecidos</t>
+        </is>
+      </c>
+      <c r="B81" s="2" t="n">
+        <v>45082</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>110,756</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Total Localizados</t>
+        </is>
+      </c>
+      <c r="B82" s="2" t="n">
+        <v>45082</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>173,830</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Porcentaje Desaparecidos</t>
+        </is>
+      </c>
+      <c r="B83" s="2" t="n">
+        <v>45082</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>38.92 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Porcentaje Localizados</t>
+        </is>
+      </c>
+      <c r="B84" s="2" t="n">
+        <v>45082</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>61.08 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Total Solo Desaparecidos</t>
+        </is>
+      </c>
+      <c r="B85" s="2" t="n">
+        <v>45082</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>96,599</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Total Solo No Localizados</t>
+        </is>
+      </c>
+      <c r="B86" s="2" t="n">
+        <v>45082</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>14,157</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Porcentaje Solo Desaparecidos</t>
+        </is>
+      </c>
+      <c r="B87" s="2" t="n">
+        <v>45082</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>87.22 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Porcentaje Solo No Localizados</t>
+        </is>
+      </c>
+      <c r="B88" s="2" t="n">
+        <v>45082</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>12.78 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Total Localizados CV</t>
+        </is>
+      </c>
+      <c r="B89" s="2" t="n">
+        <v>45082</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>161,443</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>TotalLocalizados SV</t>
+        </is>
+      </c>
+      <c r="B90" s="2" t="n">
+        <v>45082</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>12,387</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Porcentaje Localizados CV</t>
+        </is>
+      </c>
+      <c r="B91" s="2" t="n">
+        <v>45082</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>92.87 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Porcentaje Localizados SV</t>
+        </is>
+      </c>
+      <c r="B92" s="2" t="n">
+        <v>45082</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>7.13 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Total Global</t>
+        </is>
+      </c>
+      <c r="B93" s="2" t="n">
+        <v>45085</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>285,130</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Total Desaparecidos</t>
+        </is>
+      </c>
+      <c r="B94" s="2" t="n">
+        <v>45085</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>110,888</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Total Localizados</t>
+        </is>
+      </c>
+      <c r="B95" s="2" t="n">
+        <v>45085</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>174,242</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Porcentaje Desaparecidos</t>
+        </is>
+      </c>
+      <c r="B96" s="2" t="n">
+        <v>45085</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>38.89 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Porcentaje Localizados</t>
+        </is>
+      </c>
+      <c r="B97" s="2" t="n">
+        <v>45085</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>61.11 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Total Solo Desaparecidos</t>
+        </is>
+      </c>
+      <c r="B98" s="2" t="n">
+        <v>45085</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>96,677</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Total Solo No Localizados</t>
+        </is>
+      </c>
+      <c r="B99" s="2" t="n">
+        <v>45085</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>14,211</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Porcentaje Solo Desaparecidos</t>
+        </is>
+      </c>
+      <c r="B100" s="2" t="n">
+        <v>45085</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>87.18 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Porcentaje Solo No Localizados</t>
+        </is>
+      </c>
+      <c r="B101" s="2" t="n">
+        <v>45085</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>12.82 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Total Localizados CV</t>
+        </is>
+      </c>
+      <c r="B102" s="2" t="n">
+        <v>45085</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>161,771</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>TotalLocalizados SV</t>
+        </is>
+      </c>
+      <c r="B103" s="2" t="n">
+        <v>45085</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>12,471</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Porcentaje Localizados CV</t>
+        </is>
+      </c>
+      <c r="B104" s="2" t="n">
+        <v>45085</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>92.84 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Porcentaje Localizados SV</t>
+        </is>
+      </c>
+      <c r="B105" s="2" t="n">
+        <v>45085</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>7.16 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Total Global</t>
+        </is>
+      </c>
+      <c r="B106" s="2" t="n">
+        <v>45086</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>285,325</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Total Desaparecidos</t>
+        </is>
+      </c>
+      <c r="B107" s="2" t="n">
+        <v>45086</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>110,956</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Total Localizados</t>
+        </is>
+      </c>
+      <c r="B108" s="2" t="n">
+        <v>45086</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>174,369</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Porcentaje Desaparecidos</t>
+        </is>
+      </c>
+      <c r="B109" s="2" t="n">
+        <v>45086</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>38.89 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Porcentaje Localizados</t>
+        </is>
+      </c>
+      <c r="B110" s="2" t="n">
+        <v>45086</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>61.11 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Total Solo Desaparecidos</t>
+        </is>
+      </c>
+      <c r="B111" s="2" t="n">
+        <v>45086</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>96,709</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Total Solo No Localizados</t>
+        </is>
+      </c>
+      <c r="B112" s="2" t="n">
+        <v>45086</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>14,247</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Porcentaje Solo Desaparecidos</t>
+        </is>
+      </c>
+      <c r="B113" s="2" t="n">
+        <v>45086</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>87.16 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Porcentaje Solo No Localizados</t>
+        </is>
+      </c>
+      <c r="B114" s="2" t="n">
+        <v>45086</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>12.84 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Total Localizados CV</t>
+        </is>
+      </c>
+      <c r="B115" s="2" t="n">
+        <v>45086</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>161,889</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>TotalLocalizados SV</t>
+        </is>
+      </c>
+      <c r="B116" s="2" t="n">
+        <v>45086</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>12,480</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Porcentaje Localizados CV</t>
+        </is>
+      </c>
+      <c r="B117" s="2" t="n">
+        <v>45086</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>92.84 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Porcentaje Localizados SV</t>
+        </is>
+      </c>
+      <c r="B118" s="2" t="n">
+        <v>45086</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>7.16 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Total Global</t>
+        </is>
+      </c>
+      <c r="B119" s="2" t="n">
+        <v>45090</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>285,720</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Total Desaparecidos</t>
+        </is>
+      </c>
+      <c r="B120" s="2" t="n">
+        <v>45090</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>110,967</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Total Localizados</t>
+        </is>
+      </c>
+      <c r="B121" s="2" t="n">
+        <v>45090</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>174,753</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Porcentaje Desaparecidos</t>
+        </is>
+      </c>
+      <c r="B122" s="2" t="n">
+        <v>45090</v>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>38.84 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Porcentaje Localizados</t>
+        </is>
+      </c>
+      <c r="B123" s="2" t="n">
+        <v>45090</v>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>61.16 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Total Solo Desaparecidos</t>
+        </is>
+      </c>
+      <c r="B124" s="2" t="n">
+        <v>45090</v>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>96,699</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Total Solo No Localizados</t>
+        </is>
+      </c>
+      <c r="B125" s="2" t="n">
+        <v>45090</v>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>14,268</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Porcentaje Solo Desaparecidos</t>
+        </is>
+      </c>
+      <c r="B126" s="2" t="n">
+        <v>45090</v>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>87.14 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Porcentaje Solo No Localizados</t>
+        </is>
+      </c>
+      <c r="B127" s="2" t="n">
+        <v>45090</v>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>12.86 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Total Localizados CV</t>
+        </is>
+      </c>
+      <c r="B128" s="2" t="n">
+        <v>45090</v>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>162,249</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>TotalLocalizados SV</t>
+        </is>
+      </c>
+      <c r="B129" s="2" t="n">
+        <v>45090</v>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>12,504</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Porcentaje Localizados CV</t>
+        </is>
+      </c>
+      <c r="B130" s="2" t="n">
+        <v>45090</v>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>92.84 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Porcentaje Localizados SV</t>
+        </is>
+      </c>
+      <c r="B131" s="2" t="n">
+        <v>45090</v>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>7.16 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Total Global</t>
+        </is>
+      </c>
+      <c r="B132" s="2" t="n">
+        <v>45092</v>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>285,910</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Total Desaparecidos</t>
+        </is>
+      </c>
+      <c r="B133" s="2" t="n">
+        <v>45092</v>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>110,972</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Total Localizados</t>
+        </is>
+      </c>
+      <c r="B134" s="2" t="n">
+        <v>45092</v>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>174,938</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Porcentaje Desaparecidos</t>
+        </is>
+      </c>
+      <c r="B135" s="2" t="n">
+        <v>45092</v>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>38.81 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Porcentaje Localizados</t>
+        </is>
+      </c>
+      <c r="B136" s="2" t="n">
+        <v>45092</v>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>61.19 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Total Solo Desaparecidos</t>
+        </is>
+      </c>
+      <c r="B137" s="2" t="n">
+        <v>45092</v>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>96,691</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Total Solo No Localizados</t>
+        </is>
+      </c>
+      <c r="B138" s="2" t="n">
+        <v>45092</v>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>14,281</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Porcentaje Solo Desaparecidos</t>
+        </is>
+      </c>
+      <c r="B139" s="2" t="n">
+        <v>45092</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>87.13 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Porcentaje Solo No Localizados</t>
+        </is>
+      </c>
+      <c r="B140" s="2" t="n">
+        <v>45092</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>12.87 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Total Localizados CV</t>
+        </is>
+      </c>
+      <c r="B141" s="2" t="n">
+        <v>45092</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>162,420</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>TotalLocalizados SV</t>
+        </is>
+      </c>
+      <c r="B142" s="2" t="n">
+        <v>45092</v>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>12,518</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Porcentaje Localizados CV</t>
+        </is>
+      </c>
+      <c r="B143" s="2" t="n">
+        <v>45092</v>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>92.84 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Porcentaje Localizados SV</t>
+        </is>
+      </c>
+      <c r="B144" s="2" t="n">
+        <v>45092</v>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>7.16 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Total Global</t>
+        </is>
+      </c>
+      <c r="B145" s="2" t="n">
+        <v>45094</v>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>286,219</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Total Desaparecidos</t>
+        </is>
+      </c>
+      <c r="B146" s="2" t="n">
+        <v>45094</v>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>110,954</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Total Localizados</t>
+        </is>
+      </c>
+      <c r="B147" s="2" t="n">
+        <v>45094</v>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>175,265</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Porcentaje Desaparecidos</t>
+        </is>
+      </c>
+      <c r="B148" s="2" t="n">
+        <v>45094</v>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>38.77 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Porcentaje Localizados</t>
+        </is>
+      </c>
+      <c r="B149" s="2" t="n">
+        <v>45094</v>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>61.23 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Total Solo Desaparecidos</t>
+        </is>
+      </c>
+      <c r="B150" s="2" t="n">
+        <v>45094</v>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>96,675</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Total Solo No Localizados</t>
+        </is>
+      </c>
+      <c r="B151" s="2" t="n">
+        <v>45094</v>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>14,279</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Porcentaje Solo Desaparecidos</t>
+        </is>
+      </c>
+      <c r="B152" s="2" t="n">
+        <v>45094</v>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>87.13 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Porcentaje Solo No Localizados</t>
+        </is>
+      </c>
+      <c r="B153" s="2" t="n">
+        <v>45094</v>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>12.87 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Total Localizados CV</t>
+        </is>
+      </c>
+      <c r="B154" s="2" t="n">
+        <v>45094</v>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>162,696</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>TotalLocalizados SV</t>
+        </is>
+      </c>
+      <c r="B155" s="2" t="n">
+        <v>45094</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>12,569</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Porcentaje Localizados CV</t>
+        </is>
+      </c>
+      <c r="B156" s="2" t="n">
+        <v>45094</v>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>92.83 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Porcentaje Localizados SV</t>
+        </is>
+      </c>
+      <c r="B157" s="2" t="n">
+        <v>45094</v>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>7.17 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Total Global</t>
+        </is>
+      </c>
+      <c r="B158" s="2" t="n">
+        <v>45095</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>286,233</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Total Desaparecidos</t>
+        </is>
+      </c>
+      <c r="B159" s="2" t="n">
+        <v>45095</v>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>110,962</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Total Localizados</t>
+        </is>
+      </c>
+      <c r="B160" s="2" t="n">
+        <v>45095</v>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>175,271</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Porcentaje Desaparecidos</t>
+        </is>
+      </c>
+      <c r="B161" s="2" t="n">
+        <v>45095</v>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>38.77 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Porcentaje Localizados</t>
+        </is>
+      </c>
+      <c r="B162" s="2" t="n">
+        <v>45095</v>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>61.23 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Total Solo Desaparecidos</t>
+        </is>
+      </c>
+      <c r="B163" s="2" t="n">
+        <v>45095</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>96,684</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Total Solo No Localizados</t>
+        </is>
+      </c>
+      <c r="B164" s="2" t="n">
+        <v>45095</v>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>14,278</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Porcentaje Solo Desaparecidos</t>
+        </is>
+      </c>
+      <c r="B165" s="2" t="n">
+        <v>45095</v>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>87.13 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Porcentaje Solo No Localizados</t>
+        </is>
+      </c>
+      <c r="B166" s="2" t="n">
+        <v>45095</v>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>12.87 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Total Localizados CV</t>
+        </is>
+      </c>
+      <c r="B167" s="2" t="n">
+        <v>45095</v>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>162,700</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>TotalLocalizados SV</t>
+        </is>
+      </c>
+      <c r="B168" s="2" t="n">
+        <v>45095</v>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>12,571</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Porcentaje Localizados CV</t>
+        </is>
+      </c>
+      <c r="B169" s="2" t="n">
+        <v>45095</v>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>92.83 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Porcentaje Localizados SV</t>
+        </is>
+      </c>
+      <c r="B170" s="2" t="n">
+        <v>45095</v>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>7.17 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Total Global</t>
+        </is>
+      </c>
+      <c r="B171" s="2" t="n">
+        <v>45100</v>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>287,270</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Total Desaparecidos</t>
+        </is>
+      </c>
+      <c r="B172" s="2" t="n">
+        <v>45100</v>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>111,171</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Total Localizados</t>
+        </is>
+      </c>
+      <c r="B173" s="2" t="n">
+        <v>45100</v>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>176,099</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Porcentaje Desaparecidos</t>
+        </is>
+      </c>
+      <c r="B174" s="2" t="n">
+        <v>45100</v>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>38.70 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Porcentaje Localizados</t>
+        </is>
+      </c>
+      <c r="B175" s="2" t="n">
+        <v>45100</v>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>61.30 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Total Solo Desaparecidos</t>
+        </is>
+      </c>
+      <c r="B176" s="2" t="n">
+        <v>45100</v>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>96,643</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Total Solo No Localizados</t>
+        </is>
+      </c>
+      <c r="B177" s="2" t="n">
+        <v>45100</v>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>14,528</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Porcentaje Solo Desaparecidos</t>
+        </is>
+      </c>
+      <c r="B178" s="2" t="n">
+        <v>45100</v>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>86.93 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Porcentaje Solo No Localizados</t>
+        </is>
+      </c>
+      <c r="B179" s="2" t="n">
+        <v>45100</v>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>13.07 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Total Localizados CV</t>
+        </is>
+      </c>
+      <c r="B180" s="2" t="n">
+        <v>45100</v>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>163,423</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>TotalLocalizados SV</t>
+        </is>
+      </c>
+      <c r="B181" s="2" t="n">
+        <v>45100</v>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>12,676</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Porcentaje Localizados CV</t>
+        </is>
+      </c>
+      <c r="B182" s="2" t="n">
+        <v>45100</v>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>92.80 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Porcentaje Localizados SV</t>
+        </is>
+      </c>
+      <c r="B183" s="2" t="n">
+        <v>45100</v>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>7.20 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Total Global</t>
+        </is>
+      </c>
+      <c r="B184" s="2" t="n">
+        <v>45103</v>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>287,670</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Total Desaparecidos</t>
+        </is>
+      </c>
+      <c r="B185" s="2" t="n">
+        <v>45103</v>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>111,202</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Total Localizados</t>
+        </is>
+      </c>
+      <c r="B186" s="2" t="n">
+        <v>45103</v>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>176,468</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Porcentaje Desaparecidos</t>
+        </is>
+      </c>
+      <c r="B187" s="2" t="n">
+        <v>45103</v>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>38.66 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Porcentaje Localizados</t>
+        </is>
+      </c>
+      <c r="B188" s="2" t="n">
+        <v>45103</v>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>61.34 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Total Solo Desaparecidos</t>
+        </is>
+      </c>
+      <c r="B189" s="2" t="n">
+        <v>45103</v>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>96,640</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Total Solo No Localizados</t>
+        </is>
+      </c>
+      <c r="B190" s="2" t="n">
+        <v>45103</v>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>14,562</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Porcentaje Solo Desaparecidos</t>
+        </is>
+      </c>
+      <c r="B191" s="2" t="n">
+        <v>45103</v>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>86.90 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Porcentaje Solo No Localizados</t>
+        </is>
+      </c>
+      <c r="B192" s="2" t="n">
+        <v>45103</v>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>13.10 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Total Localizados CV</t>
+        </is>
+      </c>
+      <c r="B193" s="2" t="n">
+        <v>45103</v>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>163,759</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>TotalLocalizados SV</t>
+        </is>
+      </c>
+      <c r="B194" s="2" t="n">
+        <v>45103</v>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>12,709</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Porcentaje Localizados CV</t>
+        </is>
+      </c>
+      <c r="B195" s="2" t="n">
+        <v>45103</v>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>92.80 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Porcentaje Localizados SV</t>
+        </is>
+      </c>
+      <c r="B196" s="2" t="n">
+        <v>45103</v>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>7.20 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Total Global</t>
+        </is>
+      </c>
+      <c r="B197" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>288,188</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Total Desaparecidos</t>
+        </is>
+      </c>
+      <c r="B198" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>111,159</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Total Localizados</t>
+        </is>
+      </c>
+      <c r="B199" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>177,029</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Porcentaje Desaparecidos</t>
+        </is>
+      </c>
+      <c r="B200" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>38.57 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Porcentaje Localizados</t>
+        </is>
+      </c>
+      <c r="B201" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>61.43 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Total Solo Desaparecidos</t>
+        </is>
+      </c>
+      <c r="B202" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>96,622</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Total Solo No Localizados</t>
+        </is>
+      </c>
+      <c r="B203" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>14,537</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Porcentaje Solo Desaparecidos</t>
+        </is>
+      </c>
+      <c r="B204" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>86.92 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Porcentaje Solo No Localizados</t>
+        </is>
+      </c>
+      <c r="B205" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>13.08 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Total Localizados CV</t>
+        </is>
+      </c>
+      <c r="B206" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>164,271</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>TotalLocalizados SV</t>
+        </is>
+      </c>
+      <c r="B207" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>12,758</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Porcentaje Localizados CV</t>
+        </is>
+      </c>
+      <c r="B208" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>92.79 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Porcentaje Localizados SV</t>
+        </is>
+      </c>
+      <c r="B209" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>7.21 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Total Global</t>
+        </is>
+      </c>
+      <c r="B210" s="3" t="n">
+        <v>45108</v>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>288,202</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Total Desaparecidos</t>
+        </is>
+      </c>
+      <c r="B211" s="3" t="n">
+        <v>45108</v>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>111,165</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Total Localizados</t>
+        </is>
+      </c>
+      <c r="B212" s="3" t="n">
+        <v>45108</v>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>177,037</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Porcentaje Desaparecidos</t>
+        </is>
+      </c>
+      <c r="B213" s="3" t="n">
+        <v>45108</v>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>38.57 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Porcentaje Localizados</t>
+        </is>
+      </c>
+      <c r="B214" s="3" t="n">
+        <v>45108</v>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>61.43 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Total Solo Desaparecidos</t>
+        </is>
+      </c>
+      <c r="B215" s="3" t="n">
+        <v>45108</v>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>96,694</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Total Solo No Localizados</t>
+        </is>
+      </c>
+      <c r="B216" s="3" t="n">
+        <v>45108</v>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>14,471</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Porcentaje Solo Desaparecidos</t>
+        </is>
+      </c>
+      <c r="B217" s="3" t="n">
+        <v>45108</v>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>86.98 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Porcentaje Solo No Localizados</t>
+        </is>
+      </c>
+      <c r="B218" s="3" t="n">
+        <v>45108</v>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>13.02 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Total Localizados CV</t>
+        </is>
+      </c>
+      <c r="B219" s="3" t="n">
+        <v>45108</v>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>164,279</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>TotalLocalizados SV</t>
+        </is>
+      </c>
+      <c r="B220" s="3" t="n">
+        <v>45108</v>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>12,758</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Porcentaje Localizados CV</t>
+        </is>
+      </c>
+      <c r="B221" s="3" t="n">
+        <v>45108</v>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>92.79 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Porcentaje Localizados SV</t>
+        </is>
+      </c>
+      <c r="B222" s="3" t="n">
+        <v>45108</v>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>7.21 %</t>
         </is>
       </c>
     </row>
